--- a/Chemical bonding/Model performance/dataset1.xlsx
+++ b/Chemical bonding/Model performance/dataset1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ML\JPCL_Lone Pairs\JACS CODES\SCALP thermal conductivity\Chemical bonding\Model performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indianinstituteoftechindore-my.sharepoint.com/personal/phd2101131002_iiti_ac_in/Documents/My Desktop/Drive D/Project/ML/JPCL_Lone Pairs/Journal/CM/Revision/dataset and codes/SCALP thermal conductivity/Chemical bonding/Model performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43697A2C-412C-4E32-91E4-AFD917D88A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{43697A2C-412C-4E32-91E4-AFD917D88A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41599BA1-9E1B-4681-BA00-E6A22E96490D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1307,36 +1307,6 @@
     <t>KAg3As2S5</t>
   </si>
   <si>
-    <t>Mismatch</t>
-  </si>
-  <si>
-    <t>pnictogen s energy</t>
-  </si>
-  <si>
-    <t>pnictogen p energy</t>
-  </si>
-  <si>
-    <t>chalcogen s energy</t>
-  </si>
-  <si>
-    <t>chalcogen p energy</t>
-  </si>
-  <si>
-    <t>Ionicity</t>
-  </si>
-  <si>
-    <t>Hybridisation</t>
-  </si>
-  <si>
-    <t>avg ionic char</t>
-  </si>
-  <si>
-    <t>N_total</t>
-  </si>
-  <si>
-    <t>kappa</t>
-  </si>
-  <si>
     <t> 0.31</t>
   </si>
   <si>
@@ -1376,34 +1346,64 @@
     <t>Bi2SeO2</t>
   </si>
   <si>
-    <t>Ratio +3 Ph/-2 chg</t>
-  </si>
-  <si>
-    <t>chg s+p energy</t>
-  </si>
-  <si>
-    <t>Avg at. wt.</t>
-  </si>
-  <si>
-    <t>avg s val e-</t>
-  </si>
-  <si>
-    <t>avg p val e</t>
-  </si>
-  <si>
-    <t>Pn s+p energy</t>
-  </si>
-  <si>
-    <t>Avg Pn-chg EN</t>
-  </si>
-  <si>
-    <t>Diff Pn-chg EN</t>
-  </si>
-  <si>
-    <t>avg_polarizability(A^3)</t>
-  </si>
-  <si>
-    <t>Covalent_Radius</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>output</t>
   </si>
 </sst>
 </file>
@@ -1656,6 +1656,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1924,8 +1928,8 @@
   <dimension ref="A1:U504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A264" sqref="A264:XFD264"/>
+      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A440" sqref="A440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1955,64 +1959,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="O1" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6018,7 +6022,7 @@
         <v>4.58E-2</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19099,7 +19103,7 @@
         <v>3.1849999999999989E-2</v>
       </c>
       <c r="U264" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="265" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -33943,7 +33947,7 @@
     </row>
     <row r="491" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B491" s="4">
         <v>17</v>
@@ -34010,7 +34014,7 @@
     </row>
     <row r="492" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B492" s="4">
         <v>13</v>
@@ -34077,7 +34081,7 @@
     </row>
     <row r="493" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B493" s="4">
         <v>9</v>
@@ -34144,7 +34148,7 @@
     </row>
     <row r="494" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B494" s="4">
         <v>4</v>
@@ -34211,7 +34215,7 @@
     </row>
     <row r="495" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B495" s="4">
         <v>5</v>
@@ -34278,7 +34282,7 @@
     </row>
     <row r="496" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B496" s="4">
         <v>3</v>
@@ -34345,7 +34349,7 @@
     </row>
     <row r="497" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B497" s="4">
         <v>10</v>
@@ -34412,7 +34416,7 @@
     </row>
     <row r="498" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B498" s="4">
         <v>5</v>
@@ -34479,7 +34483,7 @@
     </row>
     <row r="499" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B499" s="4">
         <v>17</v>
@@ -34546,7 +34550,7 @@
     </row>
     <row r="500" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B500" s="4">
         <v>4</v>
@@ -34680,7 +34684,7 @@
     </row>
     <row r="502" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B502" s="4">
         <v>8</v>
@@ -34747,7 +34751,7 @@
     </row>
     <row r="503" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B503" s="4">
         <v>5</v>
